--- a/emails.xlsx
+++ b/emails.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bleh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74F6247-357F-4C04-995B-7AA60EEB426C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD9B4F4-5E1A-4E1E-BBDC-0B3797AA2120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5985" yWindow="1905" windowWidth="21600" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>name</t>
   </si>
   <si>
     <t>e-mail</t>
+  </si>
+  <si>
+    <t>client</t>
+  </si>
+  <si>
+    <t>clientemail</t>
   </si>
 </sst>
 </file>
@@ -498,7 +504,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,8 +522,12 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
@@ -541,6 +551,7 @@
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
